--- a/sheets/ice-en-prekids.xlsx
+++ b/sheets/ice-en-prekids.xlsx
@@ -42,39 +42,39 @@
     <t>source</t>
   </si>
   <si>
+    <t>ABC Songs for Children</t>
+  </si>
+  <si>
+    <t>Phonics Song with TWO Words</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/B5csN8gQY4E/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/hq3yfQnllfQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>hq3yfQnllfQ</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Alphabets</t>
   </si>
   <si>
-    <t>ABC Songs for Children</t>
-  </si>
-  <si>
-    <t>Phonics Song with TWO Words</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/B5csN8gQY4E/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/hq3yfQnllfQ/mqdefault.jpg</t>
+    <t>https://www.youtube.com/watch?v=hq3yfQnllfQ</t>
   </si>
   <si>
     <t>alphabets</t>
   </si>
   <si>
-    <t>hq3yfQnllfQ</t>
-  </si>
-  <si>
     <t>Phonics</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/uemFgBGOqoY/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hq3yfQnllfQ</t>
-  </si>
-  <si>
     <t>phonics</t>
   </si>
   <si>
@@ -84,76 +84,106 @@
     <t>https://img.youtube.com/vi/SyZkgcAblC4/mqdefault.jpg</t>
   </si>
   <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>Colors &amp; Rainbow</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Pf_L25J9H_I/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/wtpVi2HgGNw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>shapes</t>
+  </si>
+  <si>
     <t>B5csN8gQY4E</t>
   </si>
   <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>Colors &amp; Rainbow</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Pf_L25J9H_I/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>colors</t>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/1UcVvA2bk3c/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/D2Qvho3sewU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>fruits</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=B5csN8gQY4E</t>
   </si>
   <si>
-    <t>Shapes</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/wtpVi2HgGNw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>shapes</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/1UcVvA2bk3c/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/D2Qvho3sewU/mqdefault.jpg</t>
+    <t>Body Parts</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/_aQtam7n0rw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/akgg479BAo0/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>vehicles</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/y5pSL83c1ck/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/3xqqj9o7TgA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Festivals &amp; Greetings</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/j2SrSeOd68k/mqdefault.jpg</t>
   </si>
   <si>
     <t>ChuChu TV</t>
   </si>
   <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Body Parts</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/_aQtam7n0rw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>Vehicles</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/akgg479BAo0/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>vehicles</t>
-  </si>
-  <si>
-    <t>Animals</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/y5pSL83c1ck/mqdefault.jpg</t>
+    <t>festivals</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ET2BYL57gpQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>others</t>
   </si>
   <si>
     <t>the phonics song</t>
@@ -162,45 +192,15 @@
     <t>https://img.youtube.com/vi/MXjuwtKm1LI/mqdefault.jpg</t>
   </si>
   <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/3xqqj9o7TgA/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>MXjuwtKm1LI</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=MXjuwtKm1LI</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>Festivals &amp; Greetings</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/j2SrSeOd68k/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>festivals</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ET2BYL57gpQ/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>Farmees</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t>A for Apple Nursery rhymes</t>
   </si>
   <si>
@@ -225,55 +225,64 @@
     <t>https://www.youtube.com/watch?v=uemFgBGOqoY</t>
   </si>
   <si>
+    <t>Videogyan 3D Rhymes</t>
+  </si>
+  <si>
+    <t>ABC Phonics Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/B8pevKmrdHc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>B8pevKmrdHc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8pevKmrdHc</t>
+  </si>
+  <si>
     <t>The Alphabet Chant</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/cR-Qr1V8e_w/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Videogyan 3D Rhymes</t>
-  </si>
-  <si>
-    <t>ABC Phonics Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/B8pevKmrdHc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>B8pevKmrdHc</t>
+    <t>Babies TV</t>
+  </si>
+  <si>
+    <t>ABC Alphabet Song</t>
   </si>
   <si>
     <t>cR-Qr1V8e_w</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=B8pevKmrdHc</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=cR-Qr1V8e_w</t>
   </si>
   <si>
-    <t>Babies TV</t>
-  </si>
-  <si>
-    <t>ABC Alphabet Song</t>
+    <t>https://img.youtube.com/vi/SQr-UEHSMos/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>SQr-UEHSMos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SQr-UEHSMos</t>
   </si>
   <si>
     <t>Super Simple Songs</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/SQr-UEHSMos/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>The ABC Song</t>
   </si>
   <si>
+    <t>NurseryTracks</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/yNIY9_u9MJM/mqdefault.jpg</t>
   </si>
   <si>
-    <t>SQr-UEHSMos</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SQr-UEHSMos</t>
+    <t>A for the World</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/b9LRxALJ8n8/mqdefault.jpg</t>
   </si>
   <si>
     <t>yNIY9_u9MJM</t>
@@ -282,15 +291,6 @@
     <t>https://www.youtube.com/watch?v=yNIY9_u9MJM</t>
   </si>
   <si>
-    <t>NurseryTracks</t>
-  </si>
-  <si>
-    <t>A for the World</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/b9LRxALJ8n8/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>b9LRxALJ8n8</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>ABC Phonics</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/UQthLMdsQak/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>eVjx0_dfuNI</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/UQthLMdsQak/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=eVjx0_dfuNI</t>
   </si>
   <si>
@@ -351,6 +351,18 @@
     <t>https://www.youtube.com/watch?v=yr8xVjBZWsE</t>
   </si>
   <si>
+    <t>Pinkfong! Kids</t>
+  </si>
+  <si>
+    <t>Phonics Song A-Z</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/tI7fhRpTXXg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>tI7fhRpTXXg</t>
+  </si>
+  <si>
     <t>Flickbox Kids</t>
   </si>
   <si>
@@ -360,7 +372,7 @@
     <t>https://img.youtube.com/vi/A7InEgfPGxc/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Pinkfong! Kids</t>
+    <t>https://www.youtube.com/watch?v=tI7fhRpTXXg</t>
   </si>
   <si>
     <t>GLMEU8zl12w</t>
@@ -369,16 +381,25 @@
     <t>https://www.youtube.com/watch?v=GLMEU8zl12w</t>
   </si>
   <si>
+    <t>English Tree TV</t>
+  </si>
+  <si>
+    <t>Bobs Phonics Adventure</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/rO2zeIHbFdc/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>The Kids Club</t>
   </si>
   <si>
+    <t>rO2zeIHbFdc</t>
+  </si>
+  <si>
     <t>Alphabet Song</t>
   </si>
   <si>
-    <t>Phonics Song A-Z</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/tI7fhRpTXXg/mqdefault.jpg</t>
+    <t>https://www.youtube.com/watch?v=rO2zeIHbFdc</t>
   </si>
   <si>
     <t>A7InEgfPGxc</t>
@@ -387,7 +408,7 @@
     <t>https://www.youtube.com/watch?v=A7InEgfPGxc</t>
   </si>
   <si>
-    <t>tI7fhRpTXXg</t>
+    <t>Bob the Train</t>
   </si>
   <si>
     <t>Oh My Genius</t>
@@ -405,9 +426,6 @@
     <t>https://www.youtube.com/watch?v=SDr152XykJw</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tI7fhRpTXXg</t>
-  </si>
-  <si>
     <t>Alphabet Songs</t>
   </si>
   <si>
@@ -417,36 +435,18 @@
     <t>https://img.youtube.com/vi/cE3LzPQgQmk/mqdefault.jpg</t>
   </si>
   <si>
-    <t>English Tree TV</t>
-  </si>
-  <si>
-    <t>Bobs Phonics Adventure</t>
-  </si>
-  <si>
     <t>cE3LzPQgQmk</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cE3LzPQgQmk</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/rO2zeIHbFdc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Bob the Train</t>
-  </si>
-  <si>
     <t>Learn ABC's with 3D</t>
   </si>
   <si>
-    <t>rO2zeIHbFdc</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/3S-Au1k3Psk/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rO2zeIHbFdc</t>
-  </si>
-  <si>
     <t>3S-Au1k3Psk</t>
   </si>
   <si>
@@ -612,6 +612,102 @@
     <t>https://www.youtube.com/watch?v=JbZJFx4Ll08</t>
   </si>
   <si>
+    <t>Rainbow Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/bqhInQRrc08/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>bqhInQRrc08</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bqhInQRrc08</t>
+  </si>
+  <si>
+    <t>PINKFONG Songs for Children</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/H6WKa4dPo7s/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>H6WKa4dPo7s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H6WKa4dPo7s</t>
+  </si>
+  <si>
+    <t>Colorful Fruits</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/uOsJouK7YN4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>uOsJouK7YN4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uOsJouK7YN4</t>
+  </si>
+  <si>
+    <t>The Rainbow Colors Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/tRNy2i75tCc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>tRNy2i75tCc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRNy2i75tCc</t>
+  </si>
+  <si>
+    <t>The Singing Walrus</t>
+  </si>
+  <si>
+    <t>Colors For Kids</t>
+  </si>
+  <si>
+    <t>Pf_L25J9H_I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pf_L25J9H_I</t>
+  </si>
+  <si>
+    <t>Color Songs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/nbXKtFoTBqo/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>nbXKtFoTBqo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nbXKtFoTBqo</t>
+  </si>
+  <si>
+    <t>Colors Rhymes</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/5JbBEgM6gFs/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>5JbBEgM6gFs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5JbBEgM6gFs</t>
+  </si>
+  <si>
+    <t>Learn Colors</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/2gftgtedvI0/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>2gftgtedvI0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2gftgtedvI0</t>
+  </si>
+  <si>
     <t>Shapes Song</t>
   </si>
   <si>
@@ -621,180 +717,84 @@
     <t>https://www.youtube.com/watch?v=wtpVi2HgGNw</t>
   </si>
   <si>
-    <t>Rainbow Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/bqhInQRrc08/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>bqhInQRrc08</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bqhInQRrc08</t>
-  </si>
-  <si>
-    <t>PINKFONG Songs for Children</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/H6WKa4dPo7s/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/vLeQJL-28K0/mqdefault.jpg</t>
   </si>
   <si>
-    <t>H6WKa4dPo7s</t>
-  </si>
-  <si>
     <t>vLeQJL-28K0</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vLeQJL-28K0</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=H6WKa4dPo7s</t>
-  </si>
-  <si>
     <t>Shape Songs</t>
   </si>
   <si>
-    <t>Colorful Fruits</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/lcl8uB2AWM0/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/uOsJouK7YN4/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>lcl8uB2AWM0</t>
   </si>
   <si>
-    <t>uOsJouK7YN4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uOsJouK7YN4</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=lcl8uB2AWM0</t>
   </si>
   <si>
-    <t>The Rainbow Colors Song</t>
-  </si>
-  <si>
     <t>Dancing Shapes</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/tRNy2i75tCc/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/VGDiUaku3bQ/mqdefault.jpg</t>
   </si>
   <si>
     <t>VGDiUaku3bQ</t>
   </si>
   <si>
-    <t>tRNy2i75tCc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tRNy2i75tCc</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=VGDiUaku3bQ</t>
   </si>
   <si>
-    <t>The Singing Walrus</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/M3f8vRD6ug8/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Colors For Kids</t>
-  </si>
-  <si>
     <t>M3f8vRD6ug8</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=M3f8vRD6ug8</t>
   </si>
   <si>
-    <t>Pf_L25J9H_I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pf_L25J9H_I</t>
-  </si>
-  <si>
     <t>Learn Shapes For Children</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/wTCPlMIE4RE/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Color Songs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/nbXKtFoTBqo/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>wTCPlMIE4RE</t>
   </si>
   <si>
-    <t>nbXKtFoTBqo</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wTCPlMIE4RE</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nbXKtFoTBqo</t>
-  </si>
-  <si>
     <t>Shapes Train Song</t>
   </si>
   <si>
-    <t>Colors Rhymes</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/5JbBEgM6gFs/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/KVdV0308Tg8/mqdefault.jpg</t>
   </si>
   <si>
-    <t>5JbBEgM6gFs</t>
-  </si>
-  <si>
     <t>KVdV0308Tg8</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=KVdV0308Tg8</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5JbBEgM6gFs</t>
-  </si>
-  <si>
-    <t>Learn Colors</t>
-  </si>
-  <si>
     <t>Street Shapes</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/2gftgtedvI0/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/zvltJ9FlWB4/mqdefault.jpg</t>
   </si>
   <si>
-    <t>2gftgtedvI0</t>
-  </si>
-  <si>
     <t>zvltJ9FlWB4</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=zvltJ9FlWB4</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=2gftgtedvI0</t>
-  </si>
-  <si>
     <t>Kids TV</t>
   </si>
   <si>
@@ -810,34 +810,127 @@
     <t>https://www.youtube.com/watch?v=e0E56NfuLqE</t>
   </si>
   <si>
+    <t>Yum Yum Vegetables Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/EIQFxXvswJg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>EIQFxXvswJg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EIQFxXvswJg</t>
+  </si>
+  <si>
+    <t>ABCkidTV</t>
+  </si>
+  <si>
+    <t>Vegetables Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/BCBketJ6Ug8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>BCBketJ6Ug8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BCBketJ6Ug8</t>
+  </si>
+  <si>
+    <t>vegetables Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ygdgrT6oSUk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>ygdgrT6oSUk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ygdgrT6oSUk</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Ld2WAxZwVjY/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Ld2WAxZwVjY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ld2WAxZwVjY</t>
+  </si>
+  <si>
+    <t>Vegetable Song for kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/RE5tvaveVak/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>RE5tvaveVak</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RE5tvaveVak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn Vegetables song </t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/UC4x4Z8LH80/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>UC4x4Z8LH80</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UC4x4Z8LH80</t>
+  </si>
+  <si>
+    <t>Vegetables Song For Kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/BwJNEMo0R_w/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>BwJNEMo0R_w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BwJNEMo0R_w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RBA-gOsXsg4</t>
+  </si>
+  <si>
+    <t>Vegetable Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/AEH3aHqwzKk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>AEH3aHqwzKk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AEH3aHqwzKk</t>
+  </si>
+  <si>
     <t>Finger Family - Fruits</t>
   </si>
   <si>
-    <t>Yum Yum Vegetables Song</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/BDRQdMufFL0/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/EIQFxXvswJg/mqdefault.jpg</t>
+    <t>Baby Hazel Nursery Rhymes</t>
   </si>
   <si>
     <t>BDRQdMufFL0</t>
   </si>
   <si>
-    <t>EIQFxXvswJg</t>
+    <t>Surprise Eggs Learn Vegetables</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=BDRQdMufFL0</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EIQFxXvswJg</t>
-  </si>
-  <si>
-    <t>ABCkidTV</t>
-  </si>
-  <si>
-    <t>Vegetables Song</t>
+    <t>1UcVvA2bk3c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1UcVvA2bk3c</t>
   </si>
   <si>
     <t xml:space="preserve">Fruits Song </t>
@@ -846,45 +939,24 @@
     <t>https://img.youtube.com/vi/5tB9ZZBUcv4/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/BCBketJ6Ug8/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>5tB9ZZBUcv4</t>
   </si>
   <si>
-    <t>BCBketJ6Ug8</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=5tB9ZZBUcv4</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=BCBketJ6Ug8</t>
-  </si>
-  <si>
     <t>Happy Sunshine Friends</t>
   </si>
   <si>
-    <t>vegetables Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ygdgrT6oSUk/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>Fruit Song</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/F6N5UVLZV_M/mqdefault.jpg</t>
   </si>
   <si>
-    <t>ygdgrT6oSUk</t>
-  </si>
-  <si>
     <t>F6N5UVLZV_M</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ygdgrT6oSUk</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F6N5UVLZV_M</t>
   </si>
   <si>
@@ -894,102 +966,54 @@
     <t>https://img.youtube.com/vi/67BgIijI2xA/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/Ld2WAxZwVjY/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>67BgIijI2xA</t>
   </si>
   <si>
-    <t>Ld2WAxZwVjY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ld2WAxZwVjY</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=67BgIijI2xA</t>
   </si>
   <si>
     <t>LBB Junior</t>
   </si>
   <si>
-    <t>Vegetable Song for kids</t>
-  </si>
-  <si>
     <t>Fruits Song</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/RE5tvaveVak/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/bAhlYxS-6gc/mqdefault.jpg</t>
   </si>
   <si>
-    <t>RE5tvaveVak</t>
-  </si>
-  <si>
     <t>bAhlYxS-6gc</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bAhlYxS-6gc</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=RE5tvaveVak</t>
-  </si>
-  <si>
     <t>Zebra Nursery Rhymes</t>
   </si>
   <si>
-    <t xml:space="preserve">Learn Vegetables song </t>
-  </si>
-  <si>
     <t>FRUITS TRAIN SONG</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/UC4x4Z8LH80/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>UC4x4Z8LH80</t>
-  </si>
-  <si>
     <t>D2Qvho3sewU</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=UC4x4Z8LH80</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=D2Qvho3sewU</t>
   </si>
   <si>
     <t>KidsTV123</t>
   </si>
   <si>
-    <t>Vegetables Song For Kids</t>
-  </si>
-  <si>
     <t>Fruits Song For Children</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/BwJNEMo0R_w/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/BURVtOl4GP8/mqdefault.jpg</t>
   </si>
   <si>
-    <t>BwJNEMo0R_w</t>
-  </si>
-  <si>
     <t>BURVtOl4GP8</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=BwJNEMo0R_w</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=BURVtOl4GP8</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=RBA-gOsXsg4</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/lJvT9CbIXRc/mqdefault.jpg</t>
   </si>
   <si>
@@ -1035,60 +1059,36 @@
     <t>https://img.youtube.com/vi/2_tnKeERMPk/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Vegetable Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/AEH3aHqwzKk/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>2_tnKeERMPk</t>
   </si>
   <si>
-    <t>AEH3aHqwzKk</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=2_tnKeERMPk</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AEH3aHqwzKk</t>
-  </si>
-  <si>
-    <t>Baby Hazel Nursery Rhymes</t>
-  </si>
-  <si>
     <t>kiddies tv</t>
   </si>
   <si>
-    <t>Surprise Eggs Learn Vegetables</t>
-  </si>
-  <si>
-    <t>1UcVvA2bk3c</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1UcVvA2bk3c</t>
-  </si>
-  <si>
     <t>Surprise Eggs Toys</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/6cp1StHfIss/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>Head, Shoulders, Knees &amp; Toes</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/6cp1StHfIss/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/h4eueDYPTIg/mqdefault.jpg</t>
   </si>
   <si>
+    <t>6cp1StHfIss</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6cp1StHfIss</t>
+  </si>
+  <si>
     <t>h4eueDYPTIg</t>
   </si>
   <si>
-    <t>6cp1StHfIss</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6cp1StHfIss</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=h4eueDYPTIg</t>
   </si>
   <si>
@@ -1098,55 +1098,67 @@
     <t>https://img.youtube.com/vi/_-JzgwMAG60/mqdefault.jpg</t>
   </si>
   <si>
+    <t>Head Shoulders Knees &amp; Toes</t>
+  </si>
+  <si>
     <t>_-JzgwMAG60</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/ZanHgPprl-0/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=_-JzgwMAG60</t>
   </si>
   <si>
+    <t>ZanHgPprl-0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZanHgPprl-0</t>
+  </si>
+  <si>
     <t>Song About Trucks</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/sGOftsK4YC8/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Head Shoulders Knees &amp; Toes</t>
-  </si>
-  <si>
     <t>sGOftsK4YC8</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/ZanHgPprl-0/mqdefault.jpg</t>
+    <t xml:space="preserve">Body Parts Song </t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=sGOftsK4YC8</t>
   </si>
   <si>
-    <t>ZanHgPprl-0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZanHgPprl-0</t>
+    <t>https://img.youtube.com/vi/C3UpNEoxAt8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>C3UpNEoxAt8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C3UpNEoxAt8</t>
   </si>
   <si>
     <t xml:space="preserve">Cars Song </t>
   </si>
   <si>
-    <t xml:space="preserve">Body Parts Song </t>
-  </si>
-  <si>
     <t>akgg479BAo0</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/C3UpNEoxAt8/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=akgg479BAo0</t>
   </si>
   <si>
-    <t>C3UpNEoxAt8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C3UpNEoxAt8</t>
+    <t>Body Parts Songs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/gS_Mz3ekkck/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>gS_Mz3ekkck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gS_Mz3ekkck</t>
   </si>
   <si>
     <t>Vehicles for children</t>
@@ -1155,31 +1167,25 @@
     <t>https://img.youtube.com/vi/xj0Rexxx8-g/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Body Parts Songs</t>
-  </si>
-  <si>
     <t>xj0Rexxx8-g</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=xj0Rexxx8-g</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/gS_Mz3ekkck/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>gS_Mz3ekkck</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gS_Mz3ekkck</t>
+    <t>Boby Parts</t>
   </si>
   <si>
     <t>Vehicles Song For Kids</t>
   </si>
   <si>
+    <t>_aQtam7n0rw</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/cyebnS5fDdM/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Boby Parts</t>
+    <t>https://www.youtube.com/watch?v=_aQtam7n0rw</t>
   </si>
   <si>
     <t>cyebnS5fDdM</t>
@@ -1188,19 +1194,31 @@
     <t>https://www.youtube.com/watch?v=cyebnS5fDdM</t>
   </si>
   <si>
-    <t>_aQtam7n0rw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_aQtam7n0rw</t>
+    <t>Old MacDonald Had a Farm</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/9EQjDEpzSU8/mqdefault.jpg</t>
   </si>
   <si>
     <t>Tractor Song!</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/QA48wTGbU7A/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>9EQjDEpzSU8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9EQjDEpzSU8</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/dw8adNwMjC8/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/QA48wTGbU7A/mqdefault.jpg</t>
+    <t>QA48wTGbU7A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QA48wTGbU7A</t>
   </si>
   <si>
     <t>dw8adNwMjC8</t>
@@ -1209,43 +1227,100 @@
     <t>https://www.youtube.com/watch?v=dw8adNwMjC8</t>
   </si>
   <si>
-    <t>QA48wTGbU7A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QA48wTGbU7A</t>
+    <t>Train Head Shoulders Knees And Toes</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/-NPo15OBCY8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>-NPo15OBCY8</t>
+  </si>
+  <si>
+    <t>Wild Animals for Kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/s7pcWnlwcjA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-NPo15OBCY8</t>
+  </si>
+  <si>
+    <t>s7pcWnlwcjA</t>
+  </si>
+  <si>
+    <t>Head Shoulders Knees And Toes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7pcWnlwcjA</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/RjZoi7MFe6M/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>RjZoi7MFe6M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RjZoi7MFe6M</t>
+  </si>
+  <si>
+    <t>The Animal Sounds Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/t99ULJjCsaM/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Learn Body Parts Song</t>
+  </si>
+  <si>
+    <t>t99ULJjCsaM</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/_9UG0g9YOR8/mqdefault.jpg</t>
   </si>
   <si>
     <t>Bikes Song</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=t99ULJjCsaM</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/VexwTb45buQ/mqdefault.jpg</t>
   </si>
   <si>
-    <t>Train Head Shoulders Knees And Toes</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/-NPo15OBCY8/mqdefault.jpg</t>
+    <t>_9UG0g9YOR8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_9UG0g9YOR8</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=VexwTb45buQ</t>
   </si>
   <si>
-    <t>-NPo15OBCY8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-NPo15OBCY8</t>
-  </si>
-  <si>
-    <t>Head Shoulders Knees And Toes</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/RjZoi7MFe6M/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>RjZoi7MFe6M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RjZoi7MFe6M</t>
+    <t>The Animals On The Farm</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/zXEq-QO3xTg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>zXEq-QO3xTg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zXEq-QO3xTg</t>
+  </si>
+  <si>
+    <t>Body - parts of body</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/SUt8q0EKbms/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Walking In The Jungle</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/GoSq-yZcJ-4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>SUt8q0EKbms</t>
   </si>
   <si>
     <t>Vehicle Song</t>
@@ -1254,52 +1329,103 @@
     <t>https://img.youtube.com/vi/z--jDze5jRk/mqdefault.jpg</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=SUt8q0EKbms</t>
+  </si>
+  <si>
+    <t>GoSq-yZcJ-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GoSq-yZcJ-4</t>
+  </si>
+  <si>
     <t>z--jDze5jRk</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=z--jDze5jRk</t>
   </si>
   <si>
-    <t>Learn Body Parts Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/_9UG0g9YOR8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>_9UG0g9YOR8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_9UG0g9YOR8</t>
-  </si>
-  <si>
-    <t>Body - parts of body</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/SUt8q0EKbms/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>SUt8q0EKbms</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SUt8q0EKbms</t>
-  </si>
-  <si>
     <t>English Singsing</t>
   </si>
   <si>
+    <t>Animal Song for Kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/OwRmivbNgQk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>OwRmivbNgQk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OwRmivbNgQk</t>
+  </si>
+  <si>
+    <t>animals sounds song for kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/JvwSkkZX4QI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>JvwSkkZX4QI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JvwSkkZX4QI</t>
+  </si>
+  <si>
+    <t>Animal Sounds Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/75ENi5QC-vM/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>75ENi5QC-vM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=75ENi5QC-vM</t>
+  </si>
+  <si>
+    <t>ABC Song - Animal Safari</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Zs8TJo8TWCs/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Zs8TJo8TWCs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zs8TJo8TWCs</t>
+  </si>
+  <si>
+    <t>Babymoo Nursery Rhymes</t>
+  </si>
+  <si>
+    <t>Best Animal Sounds Song</t>
+  </si>
+  <si>
+    <t>y5pSL83c1ck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y5pSL83c1ck</t>
+  </si>
+  <si>
+    <t>Learn Animals Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/dxtCkA9Uq5k/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>dxtCkA9Uq5k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dxtCkA9Uq5k</t>
+  </si>
+  <si>
     <t>Our Family</t>
   </si>
   <si>
-    <t>Old MacDonald Had a Farm</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/9EQjDEpzSU8/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/Kjl5sPWcD-o/mqdefault.jpg</t>
   </si>
   <si>
-    <t>9EQjDEpzSU8</t>
+    <t>The Spirit of Christmas</t>
   </si>
   <si>
     <t>Kjl5sPWcD-o</t>
@@ -1308,109 +1434,124 @@
     <t>https://www.youtube.com/watch?v=Kjl5sPWcD-o</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9EQjDEpzSU8</t>
+    <t>j2SrSeOd68k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j2SrSeOd68k</t>
   </si>
   <si>
     <t>Infobells</t>
   </si>
   <si>
-    <t>Wild Animals for Kids</t>
-  </si>
-  <si>
     <t>I Love You - Family</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/BcA6muHkGXc/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/s7pcWnlwcjA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>s7pcWnlwcjA</t>
+    <t>Jingle Bells | Christmas Songs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/BPvpU0MYeoI/mqdefault.jpg</t>
   </si>
   <si>
     <t>BcA6muHkGXc</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7pcWnlwcjA</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=BcA6muHkGXc</t>
   </si>
   <si>
+    <t>BPvpU0MYeoI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BPvpU0MYeoI</t>
+  </si>
+  <si>
     <t>Shemaroo Kids</t>
   </si>
   <si>
-    <t>The Animal Sounds Song</t>
-  </si>
-  <si>
     <t>Family Members Song</t>
   </si>
   <si>
+    <t>We Wish You A Merry Christmas</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/d_WQEw13TCo/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/t99ULJjCsaM/mqdefault.jpg</t>
+    <t>https://img.youtube.com/vi/BvcmOSEQ7X8/mqdefault.jpg</t>
   </si>
   <si>
     <t>d_WQEw13TCo</t>
   </si>
   <si>
-    <t>t99ULJjCsaM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t99ULJjCsaM</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=d_WQEw13TCo</t>
   </si>
   <si>
-    <t>The Animals On The Farm</t>
+    <t>BvcmOSEQ7X8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BvcmOSEQ7X8</t>
   </si>
   <si>
     <t>New Sibling Song</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/zXEq-QO3xTg/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/UUEgLkHx7OY/mqdefault.jpg</t>
   </si>
   <si>
-    <t>zXEq-QO3xTg</t>
-  </si>
-  <si>
     <t>UUEgLkHx7OY</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=zXEq-QO3xTg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=UUEgLkHx7OY</t>
   </si>
   <si>
+    <t>Little Snowflake</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/tbbKjDjMDok/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Planet Song</t>
+  </si>
+  <si>
+    <t>tbbKjDjMDok</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/dnKVQ1jHAAA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tbbKjDjMDok</t>
+  </si>
+  <si>
     <t>My Family</t>
   </si>
   <si>
-    <t>Walking In The Jungle</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/fhgQupKiM3c/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/GoSq-yZcJ-4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>GoSq-yZcJ-4</t>
+    <t>dnKVQ1jHAAA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dnKVQ1jHAAA</t>
   </si>
   <si>
     <t>fhgQupKiM3c</t>
   </si>
   <si>
+    <t>Sweet Dreams (Goodnight Song)</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=fhgQupKiM3c</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GoSq-yZcJ-4</t>
+    <t>https://img.youtube.com/vi/OKbpLQp509Y/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>OKbpLQp509Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OKbpLQp509Y</t>
   </si>
   <si>
     <t>Appu Series</t>
@@ -1419,427 +1560,286 @@
     <t>My Family Song</t>
   </si>
   <si>
-    <t>Animal Song for Kids</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/L_cvB_pac1k/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/OwRmivbNgQk/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>OwRmivbNgQk</t>
-  </si>
-  <si>
     <t>L_cvB_pac1k</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=OwRmivbNgQk</t>
+    <t>Happy Birthday Song</t>
+  </si>
+  <si>
+    <t>Opposites Songs</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=L_cvB_pac1k</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/z9v2d7RW5Ts/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/UBr5COLrjtc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>z9v2d7RW5Ts</t>
+  </si>
+  <si>
+    <t>UBr5COLrjtc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z9v2d7RW5Ts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UBr5COLrjtc</t>
+  </si>
+  <si>
     <t>Aanon Animation Rhymes</t>
   </si>
   <si>
     <t>The Finger Family Song</t>
   </si>
   <si>
-    <t>animals sounds song for kids</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/JvwSkkZX4QI/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>3xqqj9o7TgA</t>
   </si>
   <si>
+    <t>If You're Happy And You Know It</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=3xqqj9o7TgA</t>
   </si>
   <si>
-    <t>JvwSkkZX4QI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JvwSkkZX4QI</t>
+    <t>https://img.youtube.com/vi/vN_cgoVvsBI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Vk85ETFwRVI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>vN_cgoVvsBI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vN_cgoVvsBI</t>
+  </si>
+  <si>
+    <t>Vk85ETFwRVI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vk85ETFwRVI</t>
   </si>
   <si>
     <t>family members</t>
   </si>
   <si>
-    <t>Animal Sounds Song</t>
+    <t>https://img.youtube.com/vi/ho08YLYDM88/mqdefault.jpg</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/FHaObkHEkHQ/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/75ENi5QC-vM/mqdefault.jpg</t>
+    <t>Food Song</t>
+  </si>
+  <si>
+    <t>ho08YLYDM88</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/-kxb9hBvr3M/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ho08YLYDM88</t>
   </si>
   <si>
     <t>FHaObkHEkHQ</t>
   </si>
   <si>
-    <t>75ENi5QC-vM</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=FHaObkHEkHQ</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=75ENi5QC-vM</t>
-  </si>
-  <si>
-    <t>ABC Song - Animal Safari</t>
+    <t>kxb9hBvr3M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-kxb9hBvr3M</t>
+  </si>
+  <si>
+    <t>New Year Song for Kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/yrdQDw3JRX4/mqdefault.jpg</t>
   </si>
   <si>
     <t>Family Members Song for Kids!</t>
   </si>
   <si>
+    <t>yrdQDw3JRX4</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/NVEzzzia8Yo/mqdefault.jpg</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/Zs8TJo8TWCs/mqdefault.jpg</t>
+    <t>https://www.youtube.com/watch?v=yrdQDw3JRX4</t>
+  </si>
+  <si>
+    <t>Bob The Train Friendship Song</t>
   </si>
   <si>
     <t>NVEzzzia8Yo</t>
   </si>
   <si>
-    <t>Zs8TJo8TWCs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Zs8TJo8TWCs</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NVEzzzia8Yo</t>
   </si>
   <si>
-    <t>Babymoo Nursery Rhymes</t>
+    <t>The Kiboomers</t>
+  </si>
+  <si>
+    <t>ET2BYL57gpQ</t>
+  </si>
+  <si>
+    <t>Halloween Song</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ET2BYL57gpQ</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/DPRaY5QWKIk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>DPRaY5QWKIk</t>
   </si>
   <si>
     <t>Super English Kids</t>
   </si>
   <si>
-    <t>Best Animal Sounds Song</t>
-  </si>
-  <si>
-    <t>y5pSL83c1ck</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y5pSL83c1ck</t>
-  </si>
-  <si>
-    <t>Learn Animals Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/dxtCkA9Uq5k/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>dxtCkA9Uq5k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dxtCkA9Uq5k</t>
-  </si>
-  <si>
-    <t>The Spirit of Christmas</t>
-  </si>
-  <si>
-    <t>j2SrSeOd68k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=j2SrSeOd68k</t>
-  </si>
-  <si>
-    <t>Jingle Bells | Christmas Songs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/BPvpU0MYeoI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>BPvpU0MYeoI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BPvpU0MYeoI</t>
-  </si>
-  <si>
-    <t>We Wish You A Merry Christmas</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/BvcmOSEQ7X8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>BvcmOSEQ7X8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BvcmOSEQ7X8</t>
-  </si>
-  <si>
-    <t>Little Snowflake</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/tbbKjDjMDok/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>tbbKjDjMDok</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tbbKjDjMDok</t>
-  </si>
-  <si>
-    <t>Sweet Dreams (Goodnight Song)</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/OKbpLQp509Y/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>OKbpLQp509Y</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OKbpLQp509Y</t>
-  </si>
-  <si>
-    <t>Happy Birthday Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/z9v2d7RW5Ts/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>z9v2d7RW5Ts</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z9v2d7RW5Ts</t>
-  </si>
-  <si>
-    <t>If You're Happy And You Know It</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/vN_cgoVvsBI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>vN_cgoVvsBI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vN_cgoVvsBI</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ho08YLYDM88/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>ho08YLYDM88</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ho08YLYDM88</t>
-  </si>
-  <si>
-    <t>New Year Song for Kids</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/yrdQDw3JRX4/mqdefault.jpg</t>
+    <t>https://www.youtube.com/watch?v=DPRaY5QWKIk</t>
+  </si>
+  <si>
+    <t>S-A-N-T-A | Super Simple Songs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/mGAYzlqj-aE/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/iCbIMljmT6U/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>mGAYzlqj-aE</t>
+  </si>
+  <si>
+    <t>iCbIMljmT6U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mGAYzlqj-aE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iCbIMljmT6U</t>
+  </si>
+  <si>
+    <t>Days of the Week Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/MLs9OHSAqYc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Turkey Hop Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/VJ4kKmftG7o/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>MLs9OHSAqYc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MLs9OHSAqYc</t>
+  </si>
+  <si>
+    <t>Months of the Year Song</t>
+  </si>
+  <si>
+    <t>VJ4kKmftG7o</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/-d3jkbP1xc8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VJ4kKmftG7o</t>
+  </si>
+  <si>
+    <t>d3jkbP1xc8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-d3jkbP1xc8</t>
+  </si>
+  <si>
+    <t>Thanksgiving Songs for Kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/VxfajHBG9Rg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>The Taste Song</t>
+  </si>
+  <si>
+    <t>VxfajHBG9Rg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VxfajHBG9Rg</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/QLOwCd6sK34/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>QLOwCd6sK34</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QLOwCd6sK34</t>
+  </si>
+  <si>
+    <t>Greeting Song for Kids</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/gghDRJVxFxU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>gghDRJVxFxU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gghDRJVxFxU</t>
+  </si>
+  <si>
+    <t>Telling Time Song</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/xJBek5XCexw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>xJBek5XCexw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xJBek5XCexw</t>
+  </si>
+  <si>
+    <t>Jump, Run and Shout!</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/hft6uJQIF4g/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>hft6uJQIF4g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hft6uJQIF4g</t>
+  </si>
+  <si>
+    <t>Music Instruments Song for Children</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/3ogepZsCnbY/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>3ogepZsCnbY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3ogepZsCnbY</t>
   </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>yrdQDw3JRX4</t>
-  </si>
-  <si>
-    <t>Planet Song</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yrdQDw3JRX4</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/dnKVQ1jHAAA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>The Kiboomers</t>
-  </si>
-  <si>
-    <t>Halloween Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/DPRaY5QWKIk/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>dnKVQ1jHAAA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dnKVQ1jHAAA</t>
-  </si>
-  <si>
-    <t>DPRaY5QWKIk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DPRaY5QWKIk</t>
-  </si>
-  <si>
-    <t>S-A-N-T-A | Super Simple Songs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/mGAYzlqj-aE/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>mGAYzlqj-aE</t>
-  </si>
-  <si>
-    <t>Opposites Songs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/UBr5COLrjtc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>UBr5COLrjtc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UBr5COLrjtc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mGAYzlqj-aE</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Vk85ETFwRVI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Vk85ETFwRVI</t>
-  </si>
-  <si>
-    <t>Turkey Hop Song</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Vk85ETFwRVI</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/VJ4kKmftG7o/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>VJ4kKmftG7o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VJ4kKmftG7o</t>
-  </si>
-  <si>
-    <t>Food Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/-kxb9hBvr3M/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Thanksgiving Songs for Kids</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/VxfajHBG9Rg/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>kxb9hBvr3M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-kxb9hBvr3M</t>
-  </si>
-  <si>
-    <t>VxfajHBG9Rg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VxfajHBG9Rg</t>
-  </si>
-  <si>
-    <t>Bob The Train Friendship Song</t>
-  </si>
-  <si>
-    <t>Greeting Song for Kids</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/gghDRJVxFxU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>ET2BYL57gpQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ET2BYL57gpQ</t>
-  </si>
-  <si>
-    <t>gghDRJVxFxU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gghDRJVxFxU</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/iCbIMljmT6U/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>iCbIMljmT6U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iCbIMljmT6U</t>
-  </si>
-  <si>
-    <t>Days of the Week Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/MLs9OHSAqYc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>MLs9OHSAqYc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MLs9OHSAqYc</t>
-  </si>
-  <si>
-    <t>Months of the Year Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/-d3jkbP1xc8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>d3jkbP1xc8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-d3jkbP1xc8</t>
-  </si>
-  <si>
-    <t>The Taste Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/QLOwCd6sK34/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>QLOwCd6sK34</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QLOwCd6sK34</t>
-  </si>
-  <si>
-    <t>Telling Time Song</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/xJBek5XCexw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>xJBek5XCexw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xJBek5XCexw</t>
-  </si>
-  <si>
-    <t>Jump, Run and Shout!</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/hft6uJQIF4g/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>hft6uJQIF4g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hft6uJQIF4g</t>
-  </si>
-  <si>
-    <t>Music Instruments Song for Children</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/3ogepZsCnbY/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>3ogepZsCnbY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3ogepZsCnbY</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1859,6 @@
       <b/>
       <color rgb="FFFFFFFF"/>
     </font>
-    <font/>
     <font>
       <name val="Roboto"/>
     </font>
@@ -1867,6 +1866,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -1923,16 +1923,16 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1941,10 +1941,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1959,10 +1959,10 @@
     <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1974,63 +1974,63 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2045,159 +2045,159 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2247,169 +2247,169 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
+      <c r="D3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>294</v>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
+      <c r="C7" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>294</v>
+      <c r="A9" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
+      <c r="A12" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2469,194 +2469,194 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2721,166 +2721,166 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>428</v>
+      <c r="A2" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>437</v>
+      <c r="A3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>496</v>
+      <c r="A11" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -2939,246 +2939,246 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E6" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>269</v>
+      <c r="B9" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>541</v>
+      <c r="A10" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>311</v>
+      <c r="A11" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>77</v>
+      <c r="A12" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>541</v>
+      <c r="A13" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>541</v>
+      <c r="A14" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>225</v>
+      <c r="A15" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3248,216 +3248,216 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>278</v>
+      <c r="E14" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3524,272 +3524,272 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>536</v>
+      <c r="F1" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>511</v>
+      <c r="A13" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
+      <c r="F13" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>57</v>
+      <c r="A14" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3866,87 +3866,87 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>66</v>
+      <c r="A4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
+      <c r="A5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3958,84 +3958,84 @@
       <c r="D7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>108</v>
+      <c r="E7" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>109</v>
+      <c r="A8" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>122</v>
+      <c r="A10" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>136</v>
+      <c r="A12" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>140</v>
@@ -4043,16 +4043,16 @@
       <c r="D12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="14"/>
@@ -4098,11 +4098,11 @@
     </row>
     <row r="21">
       <c r="A21" s="14"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="14"/>
@@ -10037,200 +10037,200 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>85</v>
+      <c r="E8" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>135</v>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -10293,38 +10293,38 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -10332,138 +10332,138 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>85</v>
+      <c r="E4" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>111</v>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10532,201 +10532,201 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E12" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10791,164 +10791,164 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>56</v>
+      <c r="A2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>111</v>
+      <c r="A5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>111</v>
+      <c r="A6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>68</v>
+      <c r="A7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11009,186 +11009,186 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E6" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E9" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>342</v>
+      <c r="D12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
+      <c r="A13" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -11248,233 +11248,233 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>278</v>
+      <c r="A3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>269</v>
+      <c r="A4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>294</v>
+      <c r="A5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>303</v>
+      <c r="A6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>311</v>
+      <c r="A7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>327</v>
+      <c r="A10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>111</v>
+      <c r="A11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
+      <c r="A12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>278</v>
+      <c r="A14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>343</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -11542,178 +11542,178 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>68</v>
+      <c r="E4" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>111</v>
+      <c r="D5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>269</v>
+      <c r="A7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>135</v>
+      <c r="D8" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>56</v>
+      <c r="A9" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>419</v>
+      <c r="A13" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
